--- a/data/surge/surgeData263.xlsx
+++ b/data/surge/surgeData263.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/R10/CH4_263_Swofford/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{F53F46D5-6EB6-4581-9C57-C38F9B5B12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE6870A0-A1C3-4776-BC45-8756A10C6CA8}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{F53F46D5-6EB6-4581-9C57-C38F9B5B12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3DBD758-03E4-4C8E-AFA5-0F21E2C42979}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="2160" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="241">
   <si>
     <t>F1</t>
   </si>
@@ -1740,79 +1740,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="BQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BZ3" sqref="BZ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33203125" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" customWidth="1"/>
-    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.28515625" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" customWidth="1"/>
+    <col min="31" max="31" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.33203125" customWidth="1"/>
-    <col min="51" max="51" width="8.33203125" customWidth="1"/>
-    <col min="52" max="52" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.33203125" customWidth="1"/>
-    <col min="65" max="65" width="14.88671875" customWidth="1"/>
-    <col min="66" max="66" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.28515625" customWidth="1"/>
+    <col min="51" max="51" width="8.28515625" customWidth="1"/>
+    <col min="52" max="52" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.28515625" customWidth="1"/>
+    <col min="65" max="65" width="14.85546875" customWidth="1"/>
+    <col min="66" max="66" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>182</v>
       </c>
@@ -2234,10 +2234,18 @@
       <c r="BE3">
         <v>1.5</v>
       </c>
-      <c r="BY3" s="29"/>
+      <c r="BW3">
+        <v>2</v>
+      </c>
+      <c r="BX3">
+        <v>401</v>
+      </c>
+      <c r="BY3" s="29" t="s">
+        <v>200</v>
+      </c>
       <c r="BZ3" s="26"/>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>182</v>
       </c>
@@ -2335,7 +2343,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>182</v>
       </c>
@@ -2436,7 +2444,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>182</v>
       </c>
@@ -2531,7 +2539,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>182</v>
       </c>
@@ -2626,7 +2634,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>182</v>
       </c>
@@ -2724,7 +2732,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>182</v>
       </c>
@@ -2819,7 +2827,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>182</v>
       </c>
@@ -2914,7 +2922,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>182</v>
       </c>
@@ -3009,7 +3017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>182</v>
       </c>
@@ -3104,7 +3112,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>182</v>
       </c>
@@ -3199,7 +3207,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>182</v>
       </c>
@@ -3306,7 +3314,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>182</v>
       </c>
@@ -3401,7 +3409,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>182</v>
       </c>
@@ -3493,7 +3501,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>182</v>
       </c>
@@ -3588,7 +3596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="G18" s="26"/>
       <c r="I18" s="26"/>
       <c r="U18" s="27"/>
@@ -3616,14 +3624,14 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.6640625" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -3634,7 +3642,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3645,7 +3653,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3656,7 +3664,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3667,7 +3675,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3678,7 +3686,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3689,7 +3697,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3700,7 +3708,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3711,7 +3719,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3722,7 +3730,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3733,7 +3741,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3744,7 +3752,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3755,7 +3763,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3766,7 +3774,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3774,7 +3782,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3785,7 +3793,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3793,7 +3801,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3804,7 +3812,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3812,7 +3820,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3823,7 +3831,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3831,7 +3839,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3842,7 +3850,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3853,7 +3861,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3864,7 +3872,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3875,7 +3883,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -3886,7 +3894,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3897,7 +3905,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3905,7 +3913,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3916,7 +3924,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3927,7 +3935,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -3938,7 +3946,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3949,7 +3957,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -3960,7 +3968,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -3971,7 +3979,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -3982,7 +3990,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -3993,7 +4001,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -4004,7 +4012,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -4012,7 +4020,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4020,7 +4028,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -4028,7 +4036,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -4036,7 +4044,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -4044,7 +4052,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -4052,7 +4060,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -4060,7 +4068,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4068,7 +4076,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -4076,7 +4084,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -4084,7 +4092,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -4092,7 +4100,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4100,7 +4108,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4108,7 +4116,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -4116,7 +4124,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -4127,7 +4135,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -4138,7 +4146,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4149,7 +4157,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -4160,7 +4168,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -4171,7 +4179,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4182,7 +4190,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4193,7 +4201,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4204,7 +4212,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4212,7 +4220,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4220,7 +4228,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4228,7 +4236,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4236,7 +4244,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4244,7 +4252,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4252,7 +4260,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4260,7 +4268,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4268,7 +4276,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -4276,7 +4284,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4284,7 +4292,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -4292,7 +4300,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4300,7 +4308,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -4308,7 +4316,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -4316,7 +4324,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4327,7 +4335,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -4338,7 +4346,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4349,7 +4357,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -4360,7 +4368,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -4371,7 +4379,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4382,7 +4390,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4406,18 +4414,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="25"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="25"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -4433,7 +4441,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -4467,7 +4475,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>182</v>
       </c>
@@ -4496,7 +4504,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>182</v>
       </c>
@@ -4525,7 +4533,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>182</v>
       </c>
@@ -4554,7 +4562,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>182</v>
       </c>
@@ -4600,14 +4608,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5546875" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -4618,7 +4626,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4629,7 +4637,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4640,7 +4648,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>163</v>
       </c>
@@ -4651,7 +4659,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>164</v>
       </c>
@@ -4662,7 +4670,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>165</v>
       </c>
@@ -4673,7 +4681,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>166</v>
       </c>
@@ -4681,7 +4689,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>167</v>
       </c>
@@ -4692,7 +4700,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>168</v>
       </c>
@@ -4703,7 +4711,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>169</v>
       </c>
@@ -4720,8 +4728,45 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5196,45 +5241,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5247,9 +5255,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5278,15 +5292,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
